--- a/user-data/iati-budgets-dk/iati-budgets-dk.xlsx
+++ b/user-data/iati-budgets-dk/iati-budgets-dk.xlsx
@@ -46,16 +46,34 @@
     <t xml:space="preserve">Armenia</t>
   </si>
   <si>
+    <t xml:space="preserve">BD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
     <t xml:space="preserve">BA</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
   </si>
   <si>
-    <t xml:space="preserve">BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
+    <t xml:space="preserve">BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
   </si>
   <si>
     <t xml:space="preserve">BF</t>
@@ -70,22 +88,10 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">BO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
+    <t xml:space="preserve">KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
     <t xml:space="preserve">CN</t>
@@ -130,18 +136,18 @@
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
+    <t xml:space="preserve">IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
     <t xml:space="preserve">IQ</t>
   </si>
   <si>
@@ -160,10 +166,10 @@
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
-    <t xml:space="preserve">KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
+    <t xml:space="preserve">XK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
   </si>
   <si>
     <t xml:space="preserve">LB</t>
@@ -172,144 +178,156 @@
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
+    <t xml:space="preserve">MK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">LK</t>
   </si>
   <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
     <t xml:space="preserve">SD</t>
   </si>
   <si>
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
     <t xml:space="preserve">SY</t>
   </si>
   <si>
     <t xml:space="preserve">Syria</t>
   </si>
   <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
     <t xml:space="preserve">TH</t>
   </si>
   <si>
@@ -328,10 +346,10 @@
     <t xml:space="preserve">Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
   </si>
   <si>
     <t xml:space="preserve">UA</t>
@@ -340,34 +358,16 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
     <t xml:space="preserve">VN</t>
   </si>
   <si>
     <t xml:space="preserve">Viet Nam</t>
   </si>
   <si>
-    <t xml:space="preserve">XK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
-  </si>
-  <si>
     <t xml:space="preserve">YE</t>
   </si>
   <si>
     <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -983,63 +983,63 @@
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>510046</v>
+        <v>6364309</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D10" t="n">
-        <v>6364309</v>
+        <v>10830499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D11" t="n">
-        <v>10830499</v>
+        <v>3747675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D12" t="n">
-        <v>3747675</v>
+        <v>5604000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D13" t="n">
-        <v>5604000</v>
+        <v>4203000</v>
       </c>
     </row>
     <row r="14">
@@ -1050,130 +1050,130 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D14" t="n">
-        <v>4203000</v>
+        <v>161774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D15" t="n">
-        <v>12178796</v>
+        <v>700500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D16" t="n">
-        <v>25239475</v>
+        <v>643800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>47535</v>
+        <v>22211780</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D18" t="n">
-        <v>22211780</v>
+        <v>23844329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D19" t="n">
-        <v>23844329</v>
+        <v>9530943</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D20" t="n">
-        <v>9530943</v>
+        <v>911682</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D21" t="n">
-        <v>911682</v>
+        <v>707754</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D22" t="n">
-        <v>707754</v>
+        <v>510046</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>2016</v>
@@ -1184,30 +1184,30 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
         <v>2016</v>
       </c>
       <c r="D24" t="n">
-        <v>161774</v>
+        <v>12178796</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="n">
         <v>2017</v>
       </c>
       <c r="D25" t="n">
-        <v>700500</v>
+        <v>25239475</v>
       </c>
     </row>
     <row r="26">
@@ -1218,10 +1218,10 @@
         <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D26" t="n">
-        <v>643800</v>
+        <v>47535</v>
       </c>
     </row>
     <row r="27">
@@ -1235,35 +1235,35 @@
         <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>6424998</v>
+        <v>86932</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D28" t="n">
-        <v>1488847</v>
+        <v>6424998</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D29" t="n">
-        <v>394075</v>
+        <v>1488847</v>
       </c>
     </row>
     <row r="30">
@@ -1274,38 +1274,38 @@
         <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D30" t="n">
-        <v>684225</v>
+        <v>394075</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D31" t="n">
-        <v>496460</v>
+        <v>684225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D32" t="n">
-        <v>75230</v>
+        <v>496460</v>
       </c>
     </row>
     <row r="33">
@@ -1316,38 +1316,38 @@
         <v>29</v>
       </c>
       <c r="C33" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D33" t="n">
-        <v>1431535</v>
+        <v>75230</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D34" t="n">
-        <v>1016308</v>
+        <v>1431535</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C35" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D35" t="n">
-        <v>501727</v>
+        <v>1016308</v>
       </c>
     </row>
     <row r="36">
@@ -1358,24 +1358,24 @@
         <v>31</v>
       </c>
       <c r="C36" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D36" t="n">
-        <v>14520918</v>
+        <v>501727</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C37" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>8573187</v>
+        <v>14520918</v>
       </c>
     </row>
     <row r="38">
@@ -1386,52 +1386,52 @@
         <v>33</v>
       </c>
       <c r="C38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D38" t="n">
-        <v>3780199</v>
+        <v>8573187</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>3014138</v>
+        <v>3780199</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D40" t="n">
-        <v>1573986</v>
+        <v>3014138</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="n">
-        <v>842001</v>
+        <v>1573986</v>
       </c>
     </row>
     <row r="42">
@@ -1442,66 +1442,66 @@
         <v>35</v>
       </c>
       <c r="C42" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D42" t="n">
-        <v>14648767</v>
+        <v>842001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>7184436</v>
+        <v>14648767</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D44" t="n">
-        <v>16941463</v>
+        <v>7184436</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D45" t="n">
-        <v>2379881</v>
+        <v>16941463</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D46" t="n">
-        <v>1595207</v>
+        <v>2379881</v>
       </c>
     </row>
     <row r="47">
@@ -1512,24 +1512,24 @@
         <v>37</v>
       </c>
       <c r="C47" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D47" t="n">
-        <v>98070</v>
+        <v>1595207</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C48" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D48" t="n">
-        <v>99413</v>
+        <v>98070</v>
       </c>
     </row>
     <row r="49">
@@ -1540,66 +1540,66 @@
         <v>39</v>
       </c>
       <c r="C49" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D49" t="n">
-        <v>6824154</v>
+        <v>99413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C50" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D50" t="n">
-        <v>534628</v>
+        <v>13956</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C51" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D51" t="n">
-        <v>89375</v>
+        <v>6824154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C52" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D52" t="n">
-        <v>15360</v>
+        <v>534628</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C53" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D53" t="n">
-        <v>13956</v>
+        <v>89375</v>
       </c>
     </row>
     <row r="54">
@@ -1610,24 +1610,24 @@
         <v>43</v>
       </c>
       <c r="C54" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D54" t="n">
-        <v>2724843</v>
+        <v>15360</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C55" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D55" t="n">
-        <v>7106</v>
+        <v>2724843</v>
       </c>
     </row>
     <row r="56">
@@ -1638,24 +1638,24 @@
         <v>45</v>
       </c>
       <c r="C56" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D56" t="n">
-        <v>3018660</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C57" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>70050</v>
+        <v>3018660</v>
       </c>
     </row>
     <row r="58">
@@ -1666,66 +1666,66 @@
         <v>47</v>
       </c>
       <c r="C58" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D58" t="n">
-        <v>21734138</v>
+        <v>70050</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C59" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>33234791</v>
+        <v>21734138</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C60" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D60" t="n">
-        <v>35520863</v>
+        <v>33234791</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C61" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D61" t="n">
-        <v>33961592</v>
+        <v>35520863</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C62" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D62" t="n">
-        <v>17240944</v>
+        <v>33961592</v>
       </c>
     </row>
     <row r="63">
@@ -1736,10 +1736,10 @@
         <v>49</v>
       </c>
       <c r="C63" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D63" t="n">
-        <v>86932</v>
+        <v>17240944</v>
       </c>
     </row>
     <row r="64">
@@ -1753,63 +1753,63 @@
         <v>2016</v>
       </c>
       <c r="D64" t="n">
-        <v>4623300</v>
+        <v>1075339</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C65" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D65" t="n">
-        <v>170076</v>
+        <v>1481874</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C66" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D66" t="n">
-        <v>802177</v>
+        <v>980700</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C67" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>35025</v>
+        <v>4623300</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" t="n">
         <v>2016</v>
       </c>
       <c r="D68" t="n">
-        <v>110990</v>
+        <v>78651</v>
       </c>
     </row>
     <row r="69">
@@ -1820,38 +1820,38 @@
         <v>57</v>
       </c>
       <c r="C69" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D69" t="n">
-        <v>1124894</v>
+        <v>1203794</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C70" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D70" t="n">
-        <v>307967</v>
+        <v>143252</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C71" t="n">
         <v>2016</v>
       </c>
       <c r="D71" t="n">
-        <v>78651</v>
+        <v>13956387</v>
       </c>
     </row>
     <row r="72">
@@ -1862,10 +1862,10 @@
         <v>61</v>
       </c>
       <c r="C72" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D72" t="n">
-        <v>13956387</v>
+        <v>5676824</v>
       </c>
     </row>
     <row r="73">
@@ -1876,10 +1876,10 @@
         <v>61</v>
       </c>
       <c r="C73" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D73" t="n">
-        <v>5676824</v>
+        <v>582695</v>
       </c>
     </row>
     <row r="74">
@@ -1890,108 +1890,108 @@
         <v>61</v>
       </c>
       <c r="C74" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D74" t="n">
-        <v>582695</v>
+        <v>188237</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C75" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>188237</v>
+        <v>3725321</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C76" t="n">
         <v>2016</v>
       </c>
       <c r="D76" t="n">
-        <v>5136848</v>
+        <v>110990</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C77" t="n">
         <v>2017</v>
       </c>
       <c r="D77" t="n">
-        <v>749406</v>
+        <v>1124894</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C78" t="n">
         <v>2018</v>
       </c>
       <c r="D78" t="n">
-        <v>118873</v>
+        <v>307967</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C79" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>35025</v>
+        <v>802177</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C80" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D80" t="n">
-        <v>1203794</v>
+        <v>35025</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C81" t="n">
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>3725321</v>
+        <v>10181074</v>
       </c>
     </row>
     <row r="82">
@@ -2002,10 +2002,10 @@
         <v>69</v>
       </c>
       <c r="C82" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D82" t="n">
-        <v>143252</v>
+        <v>11628300</v>
       </c>
     </row>
     <row r="83">
@@ -2019,7 +2019,7 @@
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>10181074</v>
+        <v>5136848</v>
       </c>
     </row>
     <row r="84">
@@ -2033,35 +2033,35 @@
         <v>2017</v>
       </c>
       <c r="D84" t="n">
-        <v>11628300</v>
+        <v>749406</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C85" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D85" t="n">
-        <v>8717896</v>
+        <v>118873</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C86" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D86" t="n">
-        <v>9802213</v>
+        <v>35025</v>
       </c>
     </row>
     <row r="87">
@@ -2072,10 +2072,10 @@
         <v>73</v>
       </c>
       <c r="C87" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D87" t="n">
-        <v>6310365</v>
+        <v>1767378</v>
       </c>
     </row>
     <row r="88">
@@ -2086,10 +2086,10 @@
         <v>73</v>
       </c>
       <c r="C88" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D88" t="n">
-        <v>3633137</v>
+        <v>1217065</v>
       </c>
     </row>
     <row r="89">
@@ -2100,32 +2100,32 @@
         <v>73</v>
       </c>
       <c r="C89" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D89" t="n">
-        <v>1891350</v>
+        <v>128051</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C90" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D90" t="n">
-        <v>2192447</v>
+        <v>217094</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" t="n">
         <v>2016</v>
@@ -2136,10 +2136,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" t="n">
         <v>2017</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C93" t="n">
         <v>2020</v>
@@ -2164,86 +2164,86 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C94" t="n">
         <v>2016</v>
       </c>
       <c r="D94" t="n">
-        <v>1767378</v>
+        <v>8717896</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C95" t="n">
         <v>2017</v>
       </c>
       <c r="D95" t="n">
-        <v>1217065</v>
+        <v>9802213</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96" t="n">
         <v>2018</v>
       </c>
       <c r="D96" t="n">
-        <v>128051</v>
+        <v>6310365</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C97" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D97" t="n">
-        <v>217094</v>
+        <v>3633137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C98" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D98" t="n">
-        <v>272182</v>
+        <v>1891350</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C99" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D99" t="n">
-        <v>176526</v>
+        <v>2192447</v>
       </c>
     </row>
     <row r="100">
@@ -2254,10 +2254,10 @@
         <v>81</v>
       </c>
       <c r="C100" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D100" t="n">
-        <v>58561</v>
+        <v>8892712</v>
       </c>
     </row>
     <row r="101">
@@ -2268,10 +2268,10 @@
         <v>81</v>
       </c>
       <c r="C101" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D101" t="n">
-        <v>12032</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="102">
@@ -2285,7 +2285,7 @@
         <v>2016</v>
       </c>
       <c r="D102" t="n">
-        <v>8892712</v>
+        <v>11600279</v>
       </c>
     </row>
     <row r="103">
@@ -2299,7 +2299,7 @@
         <v>2017</v>
       </c>
       <c r="D103" t="n">
-        <v>4959</v>
+        <v>280200</v>
       </c>
     </row>
     <row r="104">
@@ -2313,7 +2313,7 @@
         <v>2016</v>
       </c>
       <c r="D104" t="n">
-        <v>11600279</v>
+        <v>272182</v>
       </c>
     </row>
     <row r="105">
@@ -2327,57 +2327,57 @@
         <v>2017</v>
       </c>
       <c r="D105" t="n">
-        <v>280200</v>
+        <v>176526</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C106" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D106" t="n">
-        <v>6972</v>
+        <v>58561</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C107" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D107" t="n">
-        <v>3642600</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B108" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C108" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D108" t="n">
-        <v>1961400</v>
+        <v>6972</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C109" t="n">
         <v>2020</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C110" t="n">
         <v>2016</v>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C111" t="n">
         <v>2017</v>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" t="n">
         <v>2018</v>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C113" t="n">
         <v>2020</v>
@@ -2444,30 +2444,30 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C114" t="n">
         <v>2016</v>
       </c>
       <c r="D114" t="n">
-        <v>7967767</v>
+        <v>60352</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C115" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D115" t="n">
-        <v>5534910</v>
+        <v>34749</v>
       </c>
     </row>
     <row r="116">
@@ -2478,38 +2478,38 @@
         <v>95</v>
       </c>
       <c r="C116" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D116" t="n">
-        <v>1061257</v>
+        <v>7967767</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B117" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C117" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D117" t="n">
-        <v>21324847</v>
+        <v>5534910</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B118" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C118" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D118" t="n">
-        <v>14600902</v>
+        <v>1061257</v>
       </c>
     </row>
     <row r="119">
@@ -2523,21 +2523,21 @@
         <v>2018</v>
       </c>
       <c r="D119" t="n">
-        <v>109137</v>
+        <v>170076</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B120" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C120" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D120" t="n">
-        <v>46359</v>
+        <v>3642600</v>
       </c>
     </row>
     <row r="121">
@@ -2548,10 +2548,10 @@
         <v>99</v>
       </c>
       <c r="C121" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D121" t="n">
-        <v>237695</v>
+        <v>1961400</v>
       </c>
     </row>
     <row r="122">
@@ -2565,7 +2565,7 @@
         <v>2016</v>
       </c>
       <c r="D122" t="n">
-        <v>2157540</v>
+        <v>21324847</v>
       </c>
     </row>
     <row r="123">
@@ -2579,35 +2579,35 @@
         <v>2017</v>
       </c>
       <c r="D123" t="n">
-        <v>2521800</v>
+        <v>14600902</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C124" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D124" t="n">
-        <v>15404085</v>
+        <v>109137</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C125" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D125" t="n">
-        <v>17624580</v>
+        <v>46359</v>
       </c>
     </row>
     <row r="126">
@@ -2618,10 +2618,10 @@
         <v>103</v>
       </c>
       <c r="C126" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D126" t="n">
-        <v>8854320</v>
+        <v>21873850</v>
       </c>
     </row>
     <row r="127">
@@ -2632,52 +2632,52 @@
         <v>103</v>
       </c>
       <c r="C127" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D127" t="n">
-        <v>1723230</v>
+        <v>30073888</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B128" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C128" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D128" t="n">
-        <v>21873850</v>
+        <v>38648031</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B129" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C129" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D129" t="n">
-        <v>30073888</v>
+        <v>39259327</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C130" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D130" t="n">
-        <v>38648031</v>
+        <v>30442808</v>
       </c>
     </row>
     <row r="131">
@@ -2688,24 +2688,24 @@
         <v>105</v>
       </c>
       <c r="C131" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>39259327</v>
+        <v>237695</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C132" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D132" t="n">
-        <v>30442808</v>
+        <v>2157540</v>
       </c>
     </row>
     <row r="133">
@@ -2716,38 +2716,38 @@
         <v>107</v>
       </c>
       <c r="C133" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D133" t="n">
-        <v>4464917</v>
+        <v>2521800</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B134" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C134" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D134" t="n">
-        <v>5944707</v>
+        <v>15404085</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B135" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C135" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D135" t="n">
-        <v>1703308</v>
+        <v>17624580</v>
       </c>
     </row>
     <row r="136">
@@ -2758,10 +2758,10 @@
         <v>109</v>
       </c>
       <c r="C136" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D136" t="n">
-        <v>545031</v>
+        <v>8854320</v>
       </c>
     </row>
     <row r="137">
@@ -2772,38 +2772,38 @@
         <v>109</v>
       </c>
       <c r="C137" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="D137" t="n">
-        <v>1241914</v>
+        <v>1723230</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C138" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D138" t="n">
-        <v>1807619</v>
+        <v>545031</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C139" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D139" t="n">
-        <v>1809</v>
+        <v>1241914</v>
       </c>
     </row>
     <row r="140">
@@ -2814,10 +2814,10 @@
         <v>111</v>
       </c>
       <c r="C140" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D140" t="n">
-        <v>953047</v>
+        <v>1807619</v>
       </c>
     </row>
     <row r="141">
@@ -2831,7 +2831,7 @@
         <v>2020</v>
       </c>
       <c r="D141" t="n">
-        <v>1284</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="142">
@@ -2845,7 +2845,7 @@
         <v>2016</v>
       </c>
       <c r="D142" t="n">
-        <v>1075339</v>
+        <v>4464917</v>
       </c>
     </row>
     <row r="143">
@@ -2859,7 +2859,7 @@
         <v>2017</v>
       </c>
       <c r="D143" t="n">
-        <v>1481874</v>
+        <v>5944707</v>
       </c>
     </row>
     <row r="144">
@@ -2873,7 +2873,7 @@
         <v>2018</v>
       </c>
       <c r="D144" t="n">
-        <v>980700</v>
+        <v>1703308</v>
       </c>
     </row>
     <row r="145">
@@ -2887,21 +2887,21 @@
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>4498600</v>
+        <v>953047</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B146" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C146" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D146" t="n">
-        <v>60352</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="147">
@@ -2912,10 +2912,10 @@
         <v>117</v>
       </c>
       <c r="C147" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>34749</v>
+        <v>4498600</v>
       </c>
     </row>
     <row r="148">
@@ -3035,18 +3035,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3054,437 +3057,522 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
         <v>51796069</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>22915517</v>
       </c>
-      <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
+      <c r="G2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
         <v>1821042</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2087273</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>3480856</v>
       </c>
-      <c r="E3"/>
       <c r="F3"/>
+      <c r="G3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
         <v>1714505</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" t="n">
+      <c r="D4"/>
+      <c r="E4" t="n">
         <v>343539</v>
       </c>
-      <c r="E4"/>
       <c r="F4"/>
+      <c r="G4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>510046</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6364309</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10830499</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3747675</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5604000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4203000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>6364309</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>10830499</v>
+        <v>161774</v>
       </c>
       <c r="D6" t="n">
-        <v>3747675</v>
+        <v>700500</v>
       </c>
       <c r="E6" t="n">
-        <v>5604000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4203000</v>
-      </c>
+        <v>643800</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>12178796</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>25239475</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>22211780</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23844329</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9530943</v>
+      </c>
+      <c r="F7" t="n">
+        <v>911682</v>
+      </c>
+      <c r="G7" t="n">
+        <v>707754</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>510046</v>
+      </c>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" t="n">
-        <v>47535</v>
-      </c>
+      <c r="F8"/>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>22211780</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>23844329</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9530943</v>
-      </c>
-      <c r="E9" t="n">
-        <v>911682</v>
-      </c>
-      <c r="F9" t="n">
-        <v>707754</v>
-      </c>
+        <v>700093</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>700093</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12178796</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25239475</v>
+      </c>
       <c r="E10"/>
       <c r="F10"/>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>161774</v>
-      </c>
-      <c r="C11" t="n">
-        <v>700500</v>
-      </c>
-      <c r="D11" t="n">
-        <v>643800</v>
-      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
+      <c r="G11" t="n">
+        <v>47535</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>6424998</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>1488847</v>
-      </c>
-      <c r="D12" t="n">
-        <v>394075</v>
-      </c>
+        <v>86932</v>
+      </c>
+      <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>684225</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>496460</v>
+        <v>6424998</v>
       </c>
       <c r="D13" t="n">
-        <v>75230</v>
-      </c>
-      <c r="E13"/>
+        <v>1488847</v>
+      </c>
+      <c r="E13" t="n">
+        <v>394075</v>
+      </c>
       <c r="F13"/>
+      <c r="G13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>1431535</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>1016308</v>
+        <v>684225</v>
       </c>
       <c r="D14" t="n">
-        <v>501727</v>
-      </c>
-      <c r="E14"/>
+        <v>496460</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75230</v>
+      </c>
       <c r="F14"/>
+      <c r="G14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>14520918</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>8573187</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
+        <v>1431535</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1016308</v>
+      </c>
+      <c r="E15" t="n">
+        <v>501727</v>
+      </c>
       <c r="F15"/>
+      <c r="G15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>3780199</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>3014138</v>
+        <v>14520918</v>
       </c>
       <c r="D16" t="n">
-        <v>1573986</v>
-      </c>
-      <c r="E16" t="n">
-        <v>842001</v>
-      </c>
+        <v>8573187</v>
+      </c>
+      <c r="E16"/>
       <c r="F16"/>
+      <c r="G16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>14648767</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>7184436</v>
+        <v>3780199</v>
       </c>
       <c r="D17" t="n">
-        <v>16941463</v>
+        <v>3014138</v>
       </c>
       <c r="E17" t="n">
-        <v>2379881</v>
+        <v>1573986</v>
       </c>
       <c r="F17" t="n">
-        <v>1595207</v>
-      </c>
+        <v>842001</v>
+      </c>
+      <c r="G17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>98070</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14648767</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7184436</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16941463</v>
+      </c>
       <c r="F18" t="n">
-        <v>99413</v>
+        <v>2379881</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1595207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>6824154</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>534628</v>
-      </c>
-      <c r="D19" t="n">
-        <v>89375</v>
-      </c>
+        <v>98070</v>
+      </c>
+      <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" t="n">
-        <v>15360</v>
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>99413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
         <v>13956</v>
       </c>
-      <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
+      <c r="G20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>2724843</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21" t="n">
-        <v>7106</v>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6824154</v>
+      </c>
+      <c r="D21" t="n">
+        <v>534628</v>
+      </c>
+      <c r="E21" t="n">
+        <v>89375</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" t="n">
+        <v>15360</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>3018660</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>70050</v>
+        <v>2724843</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
+      <c r="G22" t="n">
+        <v>7106</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>21734138</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>33234791</v>
+        <v>3018660</v>
       </c>
       <c r="D23" t="n">
-        <v>35520863</v>
-      </c>
-      <c r="E23" t="n">
-        <v>33961592</v>
-      </c>
-      <c r="F23" t="n">
-        <v>17240944</v>
-      </c>
+        <v>70050</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>86932</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21734138</v>
+      </c>
+      <c r="D24" t="n">
+        <v>33234791</v>
+      </c>
+      <c r="E24" t="n">
+        <v>35520863</v>
+      </c>
+      <c r="F24" t="n">
+        <v>33961592</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17240944</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>4623300</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1075339</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1481874</v>
+      </c>
+      <c r="E25" t="n">
+        <v>980700</v>
+      </c>
       <c r="F25"/>
+      <c r="G25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26" t="n">
-        <v>170076</v>
-      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4623300</v>
+      </c>
+      <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
+      <c r="G26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>802177</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>35025</v>
+        <v>78651</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
+      <c r="G27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>110990</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1124894</v>
-      </c>
-      <c r="D28" t="n">
-        <v>307967</v>
-      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
+      <c r="G28" t="n">
+        <v>1203794</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>78651</v>
-      </c>
-      <c r="C29"/>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>143252</v>
+      </c>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
+      <c r="G29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
         <v>13956387</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>5676824</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>582695</v>
       </c>
-      <c r="E30"/>
-      <c r="F30" t="n">
+      <c r="F30"/>
+      <c r="G30" t="n">
         <v>188237</v>
       </c>
     </row>
@@ -3492,251 +3580,308 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>5136848</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>749406</v>
-      </c>
-      <c r="D31" t="n">
-        <v>118873</v>
-      </c>
-      <c r="E31" t="n">
-        <v>35025</v>
-      </c>
+        <v>3725321</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
       <c r="F31"/>
+      <c r="G31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32" t="n">
-        <v>1203794</v>
-      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>110990</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1124894</v>
+      </c>
+      <c r="E32" t="n">
+        <v>307967</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>3725321</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>802177</v>
+      </c>
+      <c r="D33" t="n">
+        <v>35025</v>
+      </c>
       <c r="E33"/>
       <c r="F33"/>
+      <c r="G33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>143252</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10181074</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11628300</v>
+      </c>
       <c r="E34"/>
       <c r="F34"/>
+      <c r="G34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>10181074</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>11628300</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>5136848</v>
+      </c>
+      <c r="D35" t="n">
+        <v>749406</v>
+      </c>
+      <c r="E35" t="n">
+        <v>118873</v>
+      </c>
+      <c r="F35" t="n">
+        <v>35025</v>
+      </c>
+      <c r="G35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>8717896</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>9802213</v>
+        <v>1767378</v>
       </c>
       <c r="D36" t="n">
-        <v>6310365</v>
+        <v>1217065</v>
       </c>
       <c r="E36" t="n">
-        <v>3633137</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1891350</v>
+        <v>128051</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" t="n">
+        <v>217094</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>2192447</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37"/>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="n">
+        <v>154110</v>
+      </c>
+      <c r="D37" t="n">
+        <v>71591</v>
+      </c>
       <c r="E37"/>
       <c r="F37"/>
+      <c r="G37" t="n">
+        <v>38826</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>154110</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
-        <v>71591</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38"/>
+        <v>8717896</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9802213</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6310365</v>
+      </c>
       <c r="F38" t="n">
-        <v>38826</v>
+        <v>3633137</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1891350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>1767378</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>1217065</v>
-      </c>
-      <c r="D39" t="n">
-        <v>128051</v>
-      </c>
+        <v>2192447</v>
+      </c>
+      <c r="D39"/>
       <c r="E39"/>
-      <c r="F39" t="n">
-        <v>217094</v>
-      </c>
+      <c r="F39"/>
+      <c r="G39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>272182</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>176526</v>
+        <v>8892712</v>
       </c>
       <c r="D40" t="n">
-        <v>58561</v>
+        <v>4959</v>
       </c>
       <c r="E40"/>
-      <c r="F40" t="n">
-        <v>12032</v>
-      </c>
+      <c r="F40"/>
+      <c r="G40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>8892712</v>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>4959</v>
-      </c>
-      <c r="D41"/>
+        <v>11600279</v>
+      </c>
+      <c r="D41" t="n">
+        <v>280200</v>
+      </c>
       <c r="E41"/>
       <c r="F41"/>
+      <c r="G41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>11600279</v>
+      <c r="B42" t="s">
+        <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>280200</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42"/>
+        <v>272182</v>
+      </c>
+      <c r="D42" t="n">
+        <v>176526</v>
+      </c>
+      <c r="E42" t="n">
+        <v>58561</v>
+      </c>
       <c r="F42"/>
+      <c r="G42" t="n">
+        <v>12032</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
         <v>6972</v>
       </c>
-      <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
+      <c r="G43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>3642600</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1961400</v>
-      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
+      <c r="G44" t="n">
+        <v>146358</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45" t="n">
-        <v>146358</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>23511746</v>
+      </c>
+      <c r="D45" t="n">
+        <v>24360235</v>
+      </c>
+      <c r="E45" t="n">
+        <v>10271945</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>23511746</v>
+      <c r="B46" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>24360235</v>
-      </c>
-      <c r="D46" t="n">
-        <v>10271945</v>
-      </c>
+        <v>60352</v>
+      </c>
+      <c r="D46"/>
       <c r="E46"/>
-      <c r="F46" t="n">
-        <v>140</v>
+      <c r="F46"/>
+      <c r="G46" t="n">
+        <v>34749</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
         <v>7967767</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>5534910</v>
       </c>
-      <c r="D47"/>
       <c r="E47"/>
-      <c r="F47" t="n">
+      <c r="F47"/>
+      <c r="G47" t="n">
         <v>1061257</v>
       </c>
     </row>
@@ -3744,189 +3889,221 @@
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>21324847</v>
-      </c>
-      <c r="C48" t="n">
-        <v>14600902</v>
-      </c>
-      <c r="D48" t="n">
-        <v>109137</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48" t="n">
-        <v>46359</v>
-      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48" t="n">
+        <v>170076</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>237695</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49"/>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3642600</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1961400</v>
+      </c>
       <c r="E49"/>
       <c r="F49"/>
+      <c r="G49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>2157540</v>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>2521800</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50"/>
+        <v>21324847</v>
+      </c>
+      <c r="D50" t="n">
+        <v>14600902</v>
+      </c>
+      <c r="E50" t="n">
+        <v>109137</v>
+      </c>
       <c r="F50"/>
+      <c r="G50" t="n">
+        <v>46359</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>15404085</v>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>17624580</v>
+        <v>21873850</v>
       </c>
       <c r="D51" t="n">
-        <v>8854320</v>
+        <v>30073888</v>
       </c>
       <c r="E51" t="n">
-        <v>1723230</v>
-      </c>
-      <c r="F51"/>
+        <v>38648031</v>
+      </c>
+      <c r="F51" t="n">
+        <v>39259327</v>
+      </c>
+      <c r="G51" t="n">
+        <v>30442808</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="n">
-        <v>21873850</v>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>30073888</v>
-      </c>
-      <c r="D52" t="n">
-        <v>38648031</v>
-      </c>
-      <c r="E52" t="n">
-        <v>39259327</v>
-      </c>
-      <c r="F52" t="n">
-        <v>30442808</v>
-      </c>
+        <v>237695</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>4464917</v>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>5944707</v>
+        <v>2157540</v>
       </c>
       <c r="D53" t="n">
-        <v>1703308</v>
+        <v>2521800</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
+      <c r="G53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>545031</v>
+      <c r="B54" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="n">
-        <v>1241914</v>
+        <v>15404085</v>
       </c>
       <c r="D54" t="n">
-        <v>1807619</v>
-      </c>
-      <c r="E54"/>
+        <v>17624580</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8854320</v>
+      </c>
       <c r="F54" t="n">
-        <v>1809</v>
-      </c>
+        <v>1723230</v>
+      </c>
+      <c r="G54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>953047</v>
-      </c>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55" t="n">
-        <v>1284</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>545031</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1241914</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1807619</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55" t="n">
+        <v>1809</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>1075339</v>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>1481874</v>
+        <v>4464917</v>
       </c>
       <c r="D56" t="n">
-        <v>980700</v>
-      </c>
-      <c r="E56"/>
+        <v>5944707</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1703308</v>
+      </c>
       <c r="F56"/>
+      <c r="G56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>4498600</v>
-      </c>
-      <c r="C57"/>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>953047</v>
+      </c>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
+      <c r="G57" t="n">
+        <v>1284</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>60352</v>
-      </c>
-      <c r="C58"/>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4498600</v>
+      </c>
       <c r="D58"/>
       <c r="E58"/>
-      <c r="F58" t="n">
-        <v>34749</v>
-      </c>
+      <c r="F58"/>
+      <c r="G58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
         <v>605931</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>579707</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>103640</v>
       </c>
-      <c r="E59"/>
-      <c r="F59" t="n">
+      <c r="F59"/>
+      <c r="G59" t="n">
         <v>114905</v>
       </c>
     </row>
@@ -3934,15 +4111,18 @@
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
         <v>3309170</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>252180</v>
       </c>
-      <c r="D60"/>
       <c r="E60"/>
-      <c r="F60" t="n">
+      <c r="F60"/>
+      <c r="G60" t="n">
         <v>374373</v>
       </c>
     </row>

--- a/user-data/iati-budgets-dk/iati-budgets-dk.xlsx
+++ b/user-data/iati-budgets-dk/iati-budgets-dk.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -400,13 +400,19 @@
     <t xml:space="preserve">Name: iati-budgets-dk</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: The data shows forward looking budget data reported to the International Aid Transparency Initiative (IATI) by Denmark for existing or committed projects spanning multiple years. Budget data is displayed for DANIDA and the Ministry of Foreign Affairs. This visualisation shows only project financing for specific countries: Regional and unspecified funding is excluded.</t>
+    <t xml:space="preserve">Description: Denmark DANIDA and Foreign Affairs forward-looking budgets for each country based on activities reported through IATI.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Development Initaitives based on Denmark Ministry of Foreign Affairs data downloaded via the IATI Registry on 15 December 2016.</t>
+    <t xml:space="preserve">Source: 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -415,25 +421,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -786,63 +786,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
         <v>139</v>
       </c>
     </row>

--- a/user-data/iati-budgets-dk/iati-budgets-dk.xlsx
+++ b/user-data/iati-budgets-dk/iati-budgets-dk.xlsx
@@ -406,7 +406,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 50</t>
+    <t xml:space="preserve">Source: 51</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/iati-budgets-dk/iati-budgets-dk.xlsx
+++ b/user-data/iati-budgets-dk/iati-budgets-dk.xlsx
@@ -406,7 +406,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 51</t>
+    <t xml:space="preserve">Source: 50</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
